--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>title.de</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>disproportionally stratified cluster sample</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
   </si>
 </sst>
 </file>
@@ -552,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,8 +624,12 @@
       <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>title.de</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>annotations.en</t>
+  </si>
+  <si>
+    <t>wave</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,21 +570,22 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -591,47 +595,50 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -641,43 +648,46 @@
       <c r="C2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>57622</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>28182</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>48.9</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -687,43 +697,46 @@
       <c r="C3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>17558</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>5933</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -733,48 +746,51 @@
       <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>5933</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>3671</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>61.9</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -783,7 +799,8 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>title.de</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>wave</t>
+  </si>
+  <si>
+    <t>Quantitative Data</t>
+  </si>
+  <si>
+    <t>dataType.de</t>
+  </si>
+  <si>
+    <t>dataType.en</t>
+  </si>
+  <si>
+    <t>Quantitative Daten</t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +597,7 @@
     <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -637,8 +649,14 @@
       <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -686,8 +704,14 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -735,8 +759,14 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -784,8 +814,14 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>title.de</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">Studienberechtigtenpanel 2008 - dritte Welle </t>
-  </si>
-  <si>
-    <t>population.de</t>
-  </si>
-  <si>
-    <t>population.en</t>
   </si>
   <si>
     <t>sample.de</t>
@@ -152,6 +146,24 @@
   </si>
   <si>
     <t>Quantitative Daten</t>
+  </si>
+  <si>
+    <t>population.description.de</t>
+  </si>
+  <si>
+    <t>population.description.en</t>
+  </si>
+  <si>
+    <t>population.title.de</t>
+  </si>
+  <si>
+    <t>population.title.en</t>
+  </si>
+  <si>
+    <t>Schulabgänger(innen) mit bundesdeutscher Hochschulreife</t>
+  </si>
+  <si>
+    <t>School leavers with a higher education entrance qualification</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,6 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -571,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,11 +608,14 @@
     <col min="15" max="15" width="21.5703125" style="3" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -608,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -616,47 +632,53 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -664,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -673,25 +695,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="M2" s="3">
         <v>57622</v>
@@ -705,13 +727,19 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -719,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
@@ -728,25 +756,25 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="M3" s="3">
         <v>17558</v>
@@ -760,13 +788,19 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -774,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
@@ -783,25 +817,25 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="M4" s="3">
         <v>5933</v>
@@ -815,13 +849,19 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -861,22 +901,22 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -163,7 +163,7 @@
     <t>Schulabgänger(innen) mit bundesdeutscher Hochschulreife</t>
   </si>
   <si>
-    <t>School leavers with a higher education entrance qualification</t>
+    <t>School Leavers With a Higher Education Entrance Qualification</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="U2" sqref="U2:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
